--- a/SRA/YPMvouchers.xlsx
+++ b/SRA/YPMvouchers.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/athorybia/siphweb_metabarcoding/SRA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD764240-E3E6-C743-82B0-2648C620EFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB681AD6-3EE1-DF49-97F4-1E1B36987D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{B3A778E8-3ED0-794E-9F91-5C68169F1960}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{B3A778E8-3ED0-794E-9F91-5C68169F1960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="246">
   <si>
     <t>SPECIMEN</t>
   </si>
@@ -263,21 +263,12 @@
     <t>D1165-SS12</t>
   </si>
   <si>
-    <t>D1166-D8_186</t>
-  </si>
-  <si>
     <t>Resomia dunni</t>
   </si>
   <si>
     <t>35.26 N 125.02 W</t>
   </si>
   <si>
-    <t>D1166-D8_193</t>
-  </si>
-  <si>
-    <t>D1168-D8_180</t>
-  </si>
-  <si>
     <t>36.41 N 122.28 W</t>
   </si>
   <si>
@@ -302,24 +293,12 @@
     <t>Apolemia sp.</t>
   </si>
   <si>
-    <t>D1240-D12_201</t>
-  </si>
-  <si>
-    <t>D1240-D12_236</t>
-  </si>
-  <si>
     <t>D1240-D6</t>
   </si>
   <si>
     <t>Erenna cornuta</t>
   </si>
   <si>
-    <t>D1240-D9_203</t>
-  </si>
-  <si>
-    <t>D1240-D9_232</t>
-  </si>
-  <si>
     <t>D1240-MS1</t>
   </si>
   <si>
@@ -389,12 +368,6 @@
     <t>D1242-SS10</t>
   </si>
   <si>
-    <t>D1242-SS11_210</t>
-  </si>
-  <si>
-    <t>D1242-SS11_230</t>
-  </si>
-  <si>
     <t>D1242-SS12</t>
   </si>
   <si>
@@ -542,24 +515,12 @@
     <t>36.50 N 122.30 W</t>
   </si>
   <si>
-    <t>D858-D6_F</t>
-  </si>
-  <si>
     <t>36.33 N 122.90 W</t>
   </si>
   <si>
-    <t>D858-D6_L</t>
-  </si>
-  <si>
-    <t>D861-D12_B</t>
-  </si>
-  <si>
     <t>36.65 N 122.06 W</t>
   </si>
   <si>
-    <t>D861-D12_E</t>
-  </si>
-  <si>
     <t>D959-SS7</t>
   </si>
   <si>
@@ -572,12 +533,6 @@
     <t>35.49 N 123.99 W</t>
   </si>
   <si>
-    <t>D960-SS1_304</t>
-  </si>
-  <si>
-    <t>D960-SS1_305</t>
-  </si>
-  <si>
     <t>35.50 N 124.00 W</t>
   </si>
   <si>
@@ -789,13 +744,40 @@
   </si>
   <si>
     <t>0-20</t>
+  </si>
+  <si>
+    <t>D1166-D8</t>
+  </si>
+  <si>
+    <t>D1240-D12</t>
+  </si>
+  <si>
+    <t>D1240-D9</t>
+  </si>
+  <si>
+    <t>D1242-SS11</t>
+  </si>
+  <si>
+    <t>D960-SS1</t>
+  </si>
+  <si>
+    <t>D858-D6</t>
+  </si>
+  <si>
+    <t>D861-D12</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>~500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -816,6 +798,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -838,10 +826,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,16 +1146,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2ACFD44-B052-FD49-86A0-A684DF672A18}">
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
@@ -1179,591 +1169,654 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1">
         <v>42532</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
+      </c>
+      <c r="I2">
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1">
         <v>42534</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
+      </c>
+      <c r="I3">
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" t="s">
-        <v>214</v>
+        <v>204</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C4" s="1">
-        <v>42534</v>
+        <v>42536</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
+      </c>
+      <c r="I4">
+        <v>2146</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>243</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
       </c>
       <c r="C5" s="1">
-        <v>42536</v>
+        <v>42537</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
+      </c>
+      <c r="I5">
+        <v>1320</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1">
-        <v>42537</v>
+        <v>42894</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
+      </c>
+      <c r="I6">
+        <v>1013</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="C7" s="1">
-        <v>42537</v>
+        <v>42895</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1">
-        <v>42894</v>
+        <v>42895</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="I8">
+        <v>1708</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1">
-        <v>42895</v>
+        <v>42896</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="I9">
+        <v>852</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" t="s">
-        <v>141</v>
+        <v>205</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C10" s="1">
-        <v>42895</v>
+        <v>42897</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="I10">
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" t="s">
-        <v>141</v>
+        <v>206</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C11" s="1">
-        <v>42895</v>
+        <v>42898</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="I11">
+        <v>1017</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C12" s="1">
-        <v>42896</v>
+        <v>42898</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="I12">
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C13" s="1">
-        <v>42897</v>
+        <v>42899</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="I13">
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
       </c>
       <c r="C14" s="1">
-        <v>42898</v>
+        <v>42900</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="I14">
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" t="s">
-        <v>115</v>
+        <v>208</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="C15" s="1">
-        <v>42898</v>
+        <v>42900</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F15" t="s">
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="I15">
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>222</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>214</v>
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>191</v>
       </c>
       <c r="C16" s="1">
-        <v>42899</v>
+        <v>43222</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
+      </c>
+      <c r="I16">
+        <v>1340</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="C17" s="1">
-        <v>42900</v>
+        <v>43225</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
+      </c>
+      <c r="I17">
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="C18" s="1">
-        <v>42900</v>
+        <v>43413</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" t="s">
         <v>234</v>
       </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
-        <v>43222</v>
+        <v>43414</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" t="s">
         <v>234</v>
       </c>
-      <c r="F19" t="s">
-        <v>4</v>
-      </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
+      </c>
+      <c r="I19">
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1">
-        <v>43225</v>
+        <v>43546</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
+      </c>
+      <c r="I20" s="3">
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>205</v>
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
       </c>
       <c r="C21" s="1">
-        <v>43413</v>
+        <v>43546</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
+      </c>
+      <c r="I21" s="3">
+        <v>766</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="1">
-        <v>43414</v>
+        <v>43546</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F22" t="s">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
+      </c>
+      <c r="I22">
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="C23" s="1">
         <v>43546</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
@@ -1772,24 +1825,27 @@
         <v>46</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
+      </c>
+      <c r="I23">
+        <v>770</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="C24" s="1">
         <v>43546</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -1798,102 +1854,114 @@
         <v>46</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
+      </c>
+      <c r="I24">
+        <v>1129</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="C25" s="1">
-        <v>43546</v>
+        <v>43548</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C26" s="1">
-        <v>43546</v>
+        <v>43548</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C27" s="1">
-        <v>43546</v>
+        <v>43548</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F27" t="s">
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C28" s="1">
         <v>43548</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F28" t="s">
         <v>4</v>
@@ -1902,27 +1970,27 @@
         <v>53</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C29" s="1">
         <v>43548</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
@@ -1931,27 +1999,27 @@
         <v>53</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C30" s="1">
         <v>43548</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
@@ -1960,27 +2028,27 @@
         <v>53</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>43548</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F31" t="s">
         <v>4</v>
@@ -1989,102 +2057,102 @@
         <v>53</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1">
         <v>43548</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1">
         <v>43548</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F33" t="s">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C34" s="1">
         <v>43548</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
         <v>61</v>
@@ -2093,10 +2161,10 @@
         <v>43548</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F35" t="s">
         <v>4</v>
@@ -2105,15 +2173,15 @@
         <v>62</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
@@ -2122,10 +2190,10 @@
         <v>43548</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
@@ -2134,114 +2202,114 @@
         <v>62</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>43548</v>
+        <v>43550</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F37" t="s">
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="C38" s="1">
-        <v>43548</v>
+        <v>43550</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F38" t="s">
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1">
-        <v>43548</v>
+        <v>43550</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1">
         <v>43550</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
@@ -2250,27 +2318,27 @@
         <v>5</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1">
         <v>43550</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
@@ -2279,27 +2347,27 @@
         <v>5</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="C42" s="1">
         <v>43550</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
@@ -2308,27 +2376,27 @@
         <v>5</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="C43" s="1">
         <v>43550</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F43" t="s">
         <v>4</v>
@@ -2337,15 +2405,15 @@
         <v>5</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -2354,10 +2422,10 @@
         <v>43550</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
@@ -2366,27 +2434,27 @@
         <v>5</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="C45" s="1">
         <v>43550</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F45" t="s">
         <v>4</v>
@@ -2395,27 +2463,27 @@
         <v>5</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="C46" s="1">
         <v>43550</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
@@ -2424,15 +2492,15 @@
         <v>5</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2441,10 +2509,10 @@
         <v>43550</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F47" t="s">
         <v>4</v>
@@ -2453,15 +2521,15 @@
         <v>5</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2470,10 +2538,10 @@
         <v>43550</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F48" t="s">
         <v>4</v>
@@ -2482,15 +2550,15 @@
         <v>5</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2499,10 +2567,10 @@
         <v>43550</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F49" t="s">
         <v>4</v>
@@ -2511,27 +2579,27 @@
         <v>5</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1">
         <v>43550</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F50" t="s">
         <v>4</v>
@@ -2540,27 +2608,27 @@
         <v>5</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1">
         <v>43550</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F51" t="s">
         <v>4</v>
@@ -2569,27 +2637,27 @@
         <v>5</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="C52" s="1">
         <v>43550</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F52" t="s">
         <v>4</v>
@@ -2598,15 +2666,15 @@
         <v>5</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2615,10 +2683,10 @@
         <v>43550</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F53" t="s">
         <v>4</v>
@@ -2627,27 +2695,27 @@
         <v>5</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="C54" s="1">
         <v>43550</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F54" t="s">
         <v>4</v>
@@ -2656,27 +2724,27 @@
         <v>5</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C55" s="1">
         <v>43550</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F55" t="s">
         <v>4</v>
@@ -2685,102 +2753,102 @@
         <v>5</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C56" s="1">
-        <v>43550</v>
+        <v>43601</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F56" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>251</v>
+        <v>223</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1">
-        <v>43550</v>
+        <v>43601</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F57" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G57" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>251</v>
+        <v>223</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="C58" s="1">
-        <v>43550</v>
+        <v>43601</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F58" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G58" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>251</v>
+        <v>223</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -2789,19 +2857,19 @@
         <v>43601</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F59" t="s">
         <v>27</v>
       </c>
       <c r="G59" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2809,7 +2877,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -2818,19 +2886,19 @@
         <v>43601</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F60" t="s">
         <v>27</v>
       </c>
       <c r="G60" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2838,7 +2906,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -2847,19 +2915,19 @@
         <v>43601</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F61" t="s">
         <v>27</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2867,7 +2935,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -2876,19 +2944,19 @@
         <v>43601</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F62" t="s">
         <v>27</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2896,7 +2964,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -2905,19 +2973,19 @@
         <v>43601</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F63" t="s">
         <v>27</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2925,7 +2993,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -2934,19 +3002,19 @@
         <v>43601</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F64" t="s">
         <v>27</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2954,132 +3022,135 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C65" s="1">
-        <v>43601</v>
+        <v>43656</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
+        <v>226</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="C66" s="1">
-        <v>43601</v>
+        <v>43657</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="C67" s="1">
-        <v>43601</v>
+        <v>43657</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>752</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C68" s="1">
-        <v>43656</v>
+        <v>43658</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F68" t="s">
         <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
+      </c>
+      <c r="I68">
+        <v>2243</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C69" s="1">
-        <v>43657</v>
+        <v>43658</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F69" t="s">
         <v>4</v>
@@ -3088,917 +3159,1026 @@
         <v>71</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
+      </c>
+      <c r="I69">
+        <v>3639</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="C70" s="1">
-        <v>43657</v>
+        <v>43659</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F70" t="s">
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
+      </c>
+      <c r="I70">
+        <v>2951</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="C71" s="1">
-        <v>43658</v>
+        <v>43661</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F71" t="s">
         <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
+      </c>
+      <c r="I71">
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="C72" s="1">
-        <v>43658</v>
+        <v>43662</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F72" t="s">
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
+      </c>
+      <c r="I72">
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="C73" s="1">
-        <v>43659</v>
+        <v>43858</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F73" t="s">
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C74" s="1">
-        <v>43659</v>
+        <v>43858</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F74" t="s">
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
+      </c>
+      <c r="I74">
+        <v>752</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="C75" s="1">
-        <v>43661</v>
+        <v>43858</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F75" t="s">
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="C76" s="1">
-        <v>43661</v>
+        <v>43858</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F76" t="s">
         <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
+      </c>
+      <c r="I76">
+        <v>1352</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="1">
+        <v>43858</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" t="s">
         <v>83</v>
       </c>
-      <c r="B77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C77" s="1">
-        <v>43662</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F77" t="s">
-        <v>4</v>
-      </c>
-      <c r="G77" t="s">
-        <v>84</v>
-      </c>
       <c r="H77" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
+      </c>
+      <c r="I77">
+        <f>102.2*10</f>
+        <v>1022</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="C78" s="1">
         <v>43858</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F78" t="s">
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I78">
+        <v>1358</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C79" s="1">
         <v>43858</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F79" t="s">
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I79">
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="C80" s="1">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F80" t="s">
         <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I80">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="C81" s="1">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F81" t="s">
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I81">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="C82" s="1">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F82" t="s">
         <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I82">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="1">
+        <v>43859</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
         <v>93</v>
       </c>
-      <c r="B83" t="s">
-        <v>211</v>
-      </c>
-      <c r="C83" s="1">
-        <v>43858</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F83" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" t="s">
-        <v>86</v>
-      </c>
       <c r="H83" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I83">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="C84" s="1">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F84" t="s">
         <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I84">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="C85" s="1">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F85" t="s">
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I85">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="C86" s="1">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F86" t="s">
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I86">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="C87" s="1">
         <v>43859</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F87" t="s">
         <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I87">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="C88" s="1">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F88" t="s">
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I88">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C89" s="1">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F89" t="s">
         <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I89">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="1">
+        <v>43860</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
         <v>104</v>
       </c>
-      <c r="B90" t="s">
-        <v>205</v>
-      </c>
-      <c r="C90" s="1">
-        <v>43859</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F90" t="s">
-        <v>4</v>
-      </c>
-      <c r="G90" t="s">
-        <v>100</v>
-      </c>
       <c r="H90" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I90">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C91" s="1">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F91" t="s">
         <v>4</v>
       </c>
       <c r="G91" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I91">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="C92" s="1">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F92" t="s">
         <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I92">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="C93" s="1">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F93" t="s">
         <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I93">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="1">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F94" t="s">
         <v>4</v>
       </c>
       <c r="G94" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I94">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C95" s="1">
         <v>43860</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F95" t="s">
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I95">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>112</v>
-      </c>
-      <c r="B96" t="s">
-        <v>211</v>
+        <v>202</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C96" s="1">
         <v>43860</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F96" t="s">
         <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I96">
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="C97" s="1">
         <v>43860</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F97" t="s">
         <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I97">
+        <v>1388</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="1">
+        <v>43861</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
         <v>114</v>
       </c>
-      <c r="B98" t="s">
-        <v>115</v>
-      </c>
-      <c r="C98" s="1">
-        <v>43860</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F98" t="s">
-        <v>4</v>
-      </c>
-      <c r="G98" t="s">
-        <v>111</v>
-      </c>
       <c r="H98" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="C99" s="1">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F99" t="s">
         <v>4</v>
       </c>
       <c r="G99" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>213</v>
+        <v>3</v>
       </c>
       <c r="C100" s="1">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F100" t="s">
         <v>4</v>
       </c>
       <c r="G100" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F101" t="s">
         <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>213</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F102" t="s">
         <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F103" t="s">
         <v>4</v>
       </c>
       <c r="G103" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>217</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>218</v>
+        <v>120</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
       </c>
       <c r="C104" s="1">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F104" t="s">
         <v>4</v>
       </c>
       <c r="G104" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -4006,25 +4186,28 @@
         <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="C105" s="1">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F105" t="s">
         <v>4</v>
       </c>
       <c r="G105" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4038,51 +4221,51 @@
         <v>43861</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F106" t="s">
         <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" t="s">
         <v>124</v>
-      </c>
-      <c r="B107" t="s">
-        <v>3</v>
       </c>
       <c r="C107" s="1">
         <v>43861</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F107" t="s">
         <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4090,28 +4273,28 @@
         <v>125</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="C108" s="1">
         <v>43861</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F108" t="s">
         <v>4</v>
       </c>
       <c r="G108" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="I108">
+        <v>1201</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4119,28 +4302,28 @@
         <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C109" s="1">
         <v>43861</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F109" t="s">
         <v>4</v>
       </c>
       <c r="G109" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="I109">
+        <v>1460</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -4148,28 +4331,28 @@
         <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C110" s="1">
         <v>43861</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F110" t="s">
         <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="I110">
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -4177,28 +4360,28 @@
         <v>128</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C111" s="1">
         <v>43861</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
         <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="I111">
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4206,28 +4389,28 @@
         <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
       <c r="C112" s="1">
         <v>43861</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
         <v>4</v>
       </c>
       <c r="G112" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="I112">
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -4235,28 +4418,28 @@
         <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C113" s="1">
         <v>43861</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
         <v>4</v>
       </c>
       <c r="G113" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="I113">
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -4264,294 +4447,318 @@
         <v>131</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="C114" s="1">
         <v>43861</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
         <v>4</v>
       </c>
       <c r="G114" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="I114">
+        <v>399</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C115" s="1">
         <v>43861</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
         <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="I115">
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="C116" s="1">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="C117" s="1">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F117" t="s">
         <v>4</v>
       </c>
       <c r="G117" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>138</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" s="1">
+        <v>43862</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F118" t="s">
+        <v>4</v>
+      </c>
+      <c r="G118" t="s">
         <v>136</v>
       </c>
-      <c r="B118" t="s">
-        <v>45</v>
-      </c>
-      <c r="C118" s="1">
-        <v>43861</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F118" t="s">
-        <v>4</v>
-      </c>
-      <c r="G118" t="s">
-        <v>123</v>
-      </c>
       <c r="H118" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C119" s="1">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F119" t="s">
         <v>4</v>
       </c>
       <c r="G119" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B120" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c r="C120" s="1">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F120" t="s">
         <v>4</v>
       </c>
       <c r="G120" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I120" s="4">
+        <v>862</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B121" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="C121" s="1">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F121" t="s">
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I121" s="4">
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C122" s="1">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F122" t="s">
         <v>4</v>
       </c>
       <c r="G122" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I122" s="4">
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B123" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="C123" s="1">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F123" t="s">
         <v>4</v>
       </c>
       <c r="G123" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I123" s="4">
+        <v>834</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="C124" s="1">
         <v>43862</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F124" t="s">
         <v>4</v>
       </c>
       <c r="G124" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="I124" s="4">
+        <v>816</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -4559,28 +4766,28 @@
         <v>146</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="C125" s="1">
         <v>43862</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F125" t="s">
         <v>4</v>
       </c>
       <c r="G125" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -4588,804 +4795,613 @@
         <v>147</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C126" s="1">
         <v>43862</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F126" t="s">
         <v>4</v>
       </c>
       <c r="G126" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="I126" s="4">
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="C127" s="1">
         <v>43862</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F127" t="s">
         <v>4</v>
       </c>
       <c r="G127" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="C128" s="1">
         <v>43862</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F128" t="s">
         <v>4</v>
       </c>
       <c r="G128" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I128" s="1"/>
+        <v>227</v>
+      </c>
+      <c r="I128" s="4">
+        <v>402</v>
+      </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C129" s="1">
         <v>43862</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F129" t="s">
         <v>4</v>
       </c>
       <c r="G129" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I129" s="4">
+        <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="C130" s="1">
-        <v>43862</v>
+        <v>43863</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F130" t="s">
         <v>4</v>
       </c>
       <c r="G130" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I130" s="4">
+        <v>797</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131" t="s">
+        <v>200</v>
+      </c>
+      <c r="C131" s="1">
+        <v>43863</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F131" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131" t="s">
         <v>153</v>
       </c>
-      <c r="B131" t="s">
-        <v>209</v>
-      </c>
-      <c r="C131" s="1">
-        <v>43862</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F131" t="s">
-        <v>4</v>
-      </c>
-      <c r="G131" t="s">
-        <v>145</v>
-      </c>
       <c r="H131" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I131" s="4">
+        <v>793</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B132" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="C132" s="1">
-        <v>43862</v>
+        <v>43863</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F132" t="s">
         <v>4</v>
       </c>
       <c r="G132" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I132" s="4">
+        <v>891</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B133" t="s">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="C133" s="1">
-        <v>43862</v>
+        <v>43863</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F133" t="s">
         <v>4</v>
       </c>
       <c r="G133" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="I133" s="4">
+        <v>405</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>156</v>
-      </c>
-      <c r="B134" t="s">
-        <v>157</v>
+        <v>210</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="C134" s="1">
-        <v>43862</v>
+        <v>44063</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F134" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="G134" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B135" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C135" s="1">
-        <v>43862</v>
+        <v>44108</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F135" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="G135" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B136" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C136" s="1">
-        <v>43862</v>
+        <v>44108</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F136" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="G136" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B137" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C137" s="1">
-        <v>43862</v>
+        <v>44108</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F137" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="G137" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B138" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C138" s="1">
-        <v>43863</v>
+        <v>44108</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F138" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="G138" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B139" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C139" s="1">
-        <v>43863</v>
+        <v>44108</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F139" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="G139" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B140" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C140" s="1">
-        <v>43863</v>
+        <v>44108</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F140" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="G140" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="C141" s="1">
-        <v>43863</v>
+        <v>44108</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F141" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="G141" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>225</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>226</v>
+        <v>182</v>
+      </c>
+      <c r="B142" t="s">
+        <v>190</v>
       </c>
       <c r="C142" s="1">
-        <v>44063</v>
+        <v>44108</v>
       </c>
       <c r="D142" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F142" t="s">
+        <v>172</v>
+      </c>
+      <c r="G142" t="s">
+        <v>175</v>
+      </c>
+      <c r="H142" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F142" t="s">
-        <v>187</v>
-      </c>
-      <c r="G142" t="s">
-        <v>188</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="I142" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B143" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C143" s="1">
         <v>44108</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F143" t="s">
+        <v>172</v>
+      </c>
+      <c r="G143" t="s">
+        <v>175</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F143" t="s">
-        <v>187</v>
-      </c>
-      <c r="G143" t="s">
-        <v>190</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="I143" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B144" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C144" s="1">
         <v>44108</v>
       </c>
       <c r="D144" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F144" t="s">
+        <v>172</v>
+      </c>
+      <c r="G144" t="s">
+        <v>175</v>
+      </c>
+      <c r="H144" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F144" t="s">
-        <v>187</v>
-      </c>
-      <c r="G144" t="s">
-        <v>190</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="I144" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B145" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C145" s="1">
         <v>44108</v>
       </c>
       <c r="D145" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F145" t="s">
+        <v>172</v>
+      </c>
+      <c r="G145" t="s">
+        <v>175</v>
+      </c>
+      <c r="H145" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F145" t="s">
-        <v>187</v>
-      </c>
-      <c r="G145" t="s">
-        <v>190</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="I145" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B146" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C146" s="1">
         <v>44108</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F146" t="s">
+        <v>172</v>
+      </c>
+      <c r="G146" t="s">
+        <v>175</v>
+      </c>
+      <c r="H146" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F146" t="s">
-        <v>187</v>
-      </c>
-      <c r="G146" t="s">
-        <v>190</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="I146" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>194</v>
-      </c>
-      <c r="B147" t="s">
-        <v>205</v>
-      </c>
-      <c r="C147" s="1">
-        <v>44108</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F147" t="s">
-        <v>187</v>
-      </c>
-      <c r="G147" t="s">
-        <v>190</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>195</v>
-      </c>
-      <c r="B148" t="s">
-        <v>205</v>
-      </c>
-      <c r="C148" s="1">
-        <v>44108</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F148" t="s">
-        <v>187</v>
-      </c>
-      <c r="G148" t="s">
-        <v>190</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>196</v>
-      </c>
-      <c r="B149" t="s">
-        <v>205</v>
-      </c>
-      <c r="C149" s="1">
-        <v>44108</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F149" t="s">
-        <v>187</v>
-      </c>
-      <c r="G149" t="s">
-        <v>190</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>197</v>
-      </c>
-      <c r="B150" t="s">
-        <v>205</v>
-      </c>
-      <c r="C150" s="1">
-        <v>44108</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F150" t="s">
-        <v>187</v>
-      </c>
-      <c r="G150" t="s">
-        <v>190</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>198</v>
-      </c>
-      <c r="B151" t="s">
-        <v>205</v>
-      </c>
-      <c r="C151" s="1">
-        <v>44108</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F151" t="s">
-        <v>187</v>
-      </c>
-      <c r="G151" t="s">
-        <v>190</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>199</v>
-      </c>
-      <c r="B152" t="s">
-        <v>205</v>
-      </c>
-      <c r="C152" s="1">
-        <v>44108</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F152" t="s">
-        <v>187</v>
-      </c>
-      <c r="G152" t="s">
-        <v>190</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>200</v>
-      </c>
-      <c r="B153" t="s">
-        <v>205</v>
-      </c>
-      <c r="C153" s="1">
-        <v>44108</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F153" t="s">
-        <v>187</v>
-      </c>
-      <c r="G153" t="s">
-        <v>190</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>201</v>
-      </c>
-      <c r="B154" t="s">
-        <v>205</v>
-      </c>
-      <c r="C154" s="1">
-        <v>44108</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F154" t="s">
-        <v>187</v>
-      </c>
-      <c r="G154" t="s">
-        <v>190</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H154">
-    <sortCondition ref="C2:C154"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H146">
+    <sortCondition ref="C2:C146"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
